--- a/biology/Histoire de la zoologie et de la botanique/Robert_Leruth/Robert_Leruth.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Leruth/Robert_Leruth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert J.N. Leruth (14 octobre 1912 - 11 juin 1940) est un biospéologue belge, connu pour avoir été le pionnier de la discipline dans ce pays en réalisant les premières découvertes dès le début des années 1930 avant une mort jeune dans les premiers jours de la Seconde Guerre mondiale[1]. Il publie, un an avant sa mort, un unique ouvrage sur la faune cavernicole de Belgique, jugé « remarquable » par ses pairs modernes[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert J.N. Leruth (14 octobre 1912 - 11 juin 1940) est un biospéologue belge, connu pour avoir été le pionnier de la discipline dans ce pays en réalisant les premières découvertes dès le début des années 1930 avant une mort jeune dans les premiers jours de la Seconde Guerre mondiale. Il publie, un an avant sa mort, un unique ouvrage sur la faune cavernicole de Belgique, jugé « remarquable » par ses pairs modernes.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il obtient un doctorat sous la direction de Louis Verlaine (1889-1939), professeur de physiologie et de psychologie animales mais avant tout entomologiste spécialiste des hyménoptères et membre du Cercle des Entomologistes Liégeois[3].
-Durant sa carrière de biospéologue, Robert Leruth explore 47 cavités belges en une centaine de visites[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il obtient un doctorat sous la direction de Louis Verlaine (1889-1939), professeur de physiologie et de psychologie animales mais avant tout entomologiste spécialiste des hyménoptères et membre du Cercle des Entomologistes Liégeois.
+Durant sa carrière de biospéologue, Robert Leruth explore 47 cavités belges en une centaine de visites.
 </t>
         </is>
       </c>
@@ -543,11 +557,48 @@
           <t>Posthumat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto Schubart publie en 1935 et en 1936 respectivement les articles Die in Belgische Hohlen von Robert Leruth gesamelten Diploten et Die in Belgische Hohlen von Robert Leruth obsarwelten Chilopoden und Symphylen, à partir des diploures, chilopodes et les symphyles trouvés par Leruth. En 1939, Paul Remy publie un article sur les pauropodes récoltés par Leruth. Jacques Denis publie en 1952 un ouvrage intitulé Araignées récoltées en Roumanie par Robert Leruth, avec un appendice sur quelques araignées cavernicoles de Belgique, se fondant également, comme son titre l'indique, sur les découvertes de Leruth.
-Taxons nommés en son honneur
-Plusieurs taxons cavernicoles ont été nommés en son honneur :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Robert_Leruth</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Robert_Leruth</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Posthumat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons nommés en son honneur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs taxons cavernicoles ont été nommés en son honneur :
 Centromerus leruthi Fage, 1933, dont il a récolté les holotypes
 Microniphargus leruthi Schellenberg, 1934
 Asellus cavaticus leruthi Arcangeli, 1935
